--- a/Phòng kỹ thuật/COA/mã hóa/mã hóa NCC.xlsx
+++ b/Phòng kỹ thuật/COA/mã hóa/mã hóa NCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\COA\mã hóa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\COA\mã hóa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C4151B-8EB9-4C8A-820B-CC70279CA87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFF247-E129-4B23-9337-4E02C480403C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ĐÚNG!$A$2:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t>NHÀ CUNG CẤP</t>
   </si>
@@ -342,13 +342,64 @@
   </si>
   <si>
     <t>NCC47</t>
+  </si>
+  <si>
+    <t>GUANG BANG</t>
+  </si>
+  <si>
+    <t>THỦY LONG</t>
+  </si>
+  <si>
+    <t>YONG CHI</t>
+  </si>
+  <si>
+    <t>A.F.E.W (HÓA CHẤT OXY)</t>
+  </si>
+  <si>
+    <t>SETAS</t>
+  </si>
+  <si>
+    <t>HINDPRAKSH</t>
+  </si>
+  <si>
+    <t>NATRA GLOBAL</t>
+  </si>
+  <si>
+    <t>COLORKIM</t>
+  </si>
+  <si>
+    <t>NCC48</t>
+  </si>
+  <si>
+    <t>NCC49</t>
+  </si>
+  <si>
+    <t>NCC50</t>
+  </si>
+  <si>
+    <t>NCC51</t>
+  </si>
+  <si>
+    <t>NCC52</t>
+  </si>
+  <si>
+    <t>NCC53</t>
+  </si>
+  <si>
+    <t>NCC54</t>
+  </si>
+  <si>
+    <t>NCC55</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +410,17 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -398,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +471,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E54"/>
+  <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1207,7 +1279,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1221,7 +1293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1233,7 +1305,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1247,7 +1319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1261,7 +1333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1273,7 +1345,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1287,7 +1359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1301,7 +1373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1315,7 +1387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1329,7 +1401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1343,7 +1415,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1355,7 +1427,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1369,21 +1441,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1397,7 +1472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1413,51 +1488,132 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>103</v>
+      <c r="B49" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
